--- a/excel-cleaning/inventory_cleaned_polars.xlsx
+++ b/excel-cleaning/inventory_cleaned_polars.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="19">
   <si>
-    <t>tmp something Part or Item Number</t>
+    <t>tmp 1 2 Part or Item Number</t>
   </si>
   <si>
-    <t>tmp else something Item Description</t>
+    <t>tmp 2 1 Item Description</t>
   </si>
   <si>
     <t>Test_2 Current Stock</t>
@@ -149,8 +149,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:L100" totalsRowShown="0">
   <autoFilter ref="A1:L100"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="tmp something Part or Item Number" dataDxfId="0"/>
-    <tableColumn id="2" name="tmp else something Item Description" dataDxfId="0"/>
+    <tableColumn id="1" name="tmp 1 2 Part or Item Number" dataDxfId="0"/>
+    <tableColumn id="2" name="tmp 2 1 Item Description" dataDxfId="0"/>
     <tableColumn id="3" name="Test_2 Current Stock" dataDxfId="1"/>
     <tableColumn id="4" name="Test_2 On Order" dataDxfId="1"/>
     <tableColumn id="5" name="Test_2 Some Number" dataDxfId="1"/>
